--- a/Computer Science/Labs/Lab5/output/output.xlsx
+++ b/Computer Science/Labs/Lab5/output/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AQ73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,17 @@
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr"/>
       <c r="AF1" t="inlineStr"/>
+      <c r="AG1" t="inlineStr"/>
+      <c r="AH1" t="inlineStr"/>
+      <c r="AI1" t="inlineStr"/>
+      <c r="AJ1" t="inlineStr"/>
+      <c r="AK1" t="inlineStr"/>
+      <c r="AL1" t="inlineStr"/>
+      <c r="AM1" t="inlineStr"/>
+      <c r="AN1" t="inlineStr"/>
+      <c r="AO1" t="inlineStr"/>
+      <c r="AP1" t="inlineStr"/>
+      <c r="AQ1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +515,17 @@
           <t>Результат корректный</t>
         </is>
       </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -571,9 +593,20 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>При сложении положительных чисел получен отрицательный результат ПЕРЕПОЛНЕНИЕ!</t>
-        </is>
-      </c>
+          <t>При сложении двух положительных чисел получен отрицательный результат — произошло переполнение.</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -677,9 +710,20 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Результат корректный. Перенос из старшего разряда не учитывается</t>
-        </is>
-      </c>
+          <t>Результат корректный, перенос из старшего разряда не учитывается.</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -775,13 +819,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>ФИО: Эллити Мохамед Эмад Ахмед Авад
-Группа: P3131
-Вариант: 29</t>
-        </is>
-      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -789,9 +827,20 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>При сложении отрицательных чисел получен положительный результат ПЕРЕПОЛНЕНИЕ!</t>
-        </is>
-      </c>
+          <t>При сложении двух отрицательных чисел получен положительный результат — произошло переполнение.</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -894,6 +943,17 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -996,6 +1056,17 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1098,6 +1169,17 @@
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1200,6 +1282,17 @@
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1302,6 +1395,17 @@
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1404,6 +1508,17 @@
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1506,6 +1621,17 @@
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1608,6 +1734,17 @@
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1710,6 +1847,17 @@
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1812,6 +1960,17 @@
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1846,6 +2005,17 @@
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1922,6 +2092,17 @@
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -2020,6 +2201,17 @@
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -2130,6 +2322,17 @@
           <t>Результат корректный</t>
         </is>
       </c>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -2224,6 +2427,17 @@
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -2274,6 +2488,17 @@
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -2344,6 +2569,17 @@
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -2378,6 +2614,17 @@
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -2412,6 +2659,17 @@
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -2488,6 +2746,17 @@
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -2586,6 +2855,17 @@
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -2693,9 +2973,20 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>При сложении положительных чисел получен отрицательный результат ПЕРЕПОЛНЕНИЕ!</t>
-        </is>
-      </c>
+          <t>При сложении двух положительных чисел получен отрицательный результат — произошло переполнение.</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2790,6 +3081,17 @@
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2880,6 +3182,17 @@
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2950,6 +3263,17 @@
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2984,6 +3308,17 @@
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3018,6 +3353,17 @@
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -3094,6 +3440,17 @@
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -3192,6 +3549,17 @@
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -3299,9 +3667,20 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Результат корректный. Перенос из старшего разряда не учитывается</t>
-        </is>
-      </c>
+          <t>Результат корректный, перенос из старшего разряда не учитывается.</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -3392,6 +3771,17 @@
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -3442,6 +3832,17 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -3512,6 +3913,17 @@
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -3546,6 +3958,17 @@
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -3580,6 +4003,17 @@
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -3656,6 +4090,17 @@
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -3754,6 +4199,17 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -3861,9 +4317,20 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Результат корректный. Перенос из старшего разряда не учитывается</t>
-        </is>
-      </c>
+          <t>Результат корректный, перенос из старшего разряда не учитывается.</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3954,6 +4421,17 @@
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -4044,6 +4522,17 @@
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -4114,6 +4603,17 @@
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -4148,6 +4648,17 @@
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -4182,6 +4693,17 @@
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -4258,6 +4780,17 @@
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -4344,7 +4877,11 @@
       </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="AB50" t="inlineStr">
         <is>
           <t>X8(10)</t>
@@ -4356,6 +4893,17 @@
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -4446,11 +4994,7 @@
       </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr">
         <is>
           <t>X9(10)</t>
@@ -4463,9 +5007,20 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>При сложении отрицательных чисел получен положительный результат ПЕРЕПОЛНЕНИЕ!</t>
-        </is>
-      </c>
+          <t>При сложении двух отрицательных чисел получен положительный результат — произошло переполнение.</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -4556,6 +5111,17 @@
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -4606,6 +5172,17 @@
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -4676,6 +5253,17 @@
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -4710,6 +5298,17 @@
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -4744,6 +5343,17 @@
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -4820,6 +5430,17 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -4906,7 +5527,11 @@
       </c>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="AB58" t="inlineStr">
         <is>
           <t>X1(10)</t>
@@ -4918,6 +5543,17 @@
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -5008,11 +5644,7 @@
       </c>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr">
         <is>
           <t>X8(10)</t>
@@ -5028,6 +5660,17 @@
           <t>Результат корректный</t>
         </is>
       </c>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -5118,6 +5761,17 @@
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -5208,6 +5862,17 @@
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -5278,6 +5943,17 @@
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -5312,6 +5988,17 @@
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -5346,6 +6033,17 @@
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -5422,6 +6120,17 @@
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -5520,6 +6229,17 @@
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -5627,9 +6347,20 @@
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>Результат корректный. Перенос из старшего разряда не учитывается</t>
-        </is>
-      </c>
+          <t>Результат корректный, перенос из старшего разряда не учитывается.</t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -5720,6 +6451,17 @@
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -5770,6 +6512,17 @@
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="inlineStr"/>
+      <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -5840,6 +6593,238 @@
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
+      <c r="AO70" t="inlineStr"/>
+      <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
+      <c r="AO72" t="inlineStr"/>
+      <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>10</v>
+      </c>
+      <c r="K73" t="n">
+        <v>11</v>
+      </c>
+      <c r="L73" t="n">
+        <v>12</v>
+      </c>
+      <c r="M73" t="n">
+        <v>13</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14</v>
+      </c>
+      <c r="O73" t="n">
+        <v>15</v>
+      </c>
+      <c r="P73" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>17</v>
+      </c>
+      <c r="R73" t="n">
+        <v>18</v>
+      </c>
+      <c r="S73" t="n">
+        <v>19</v>
+      </c>
+      <c r="T73" t="n">
+        <v>20</v>
+      </c>
+      <c r="U73" t="n">
+        <v>21</v>
+      </c>
+      <c r="V73" t="n">
+        <v>22</v>
+      </c>
+      <c r="W73" t="n">
+        <v>23</v>
+      </c>
+      <c r="X73" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
